--- a/HyperParameterTuning.xlsx
+++ b/HyperParameterTuning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wumeiqi/Desktop/Projects/charmion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7616E055-599E-1943-8904-77F254753FCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD582308-7160-EB47-B4CC-800E219382E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46280" yWindow="-4920" windowWidth="30080" windowHeight="14860" xr2:uid="{33FA2F1C-F58F-5C4A-AEF1-FC412495B342}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>weight_ratio</t>
   </si>
@@ -67,12 +67,15 @@
   <si>
     <t>test_f1</t>
   </si>
+  <si>
+    <t>Classifier Chain (Random Forest)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,6 +105,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,11 +138,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,90 +459,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B620D9-3802-1E40-A647-DF5E8574A81E}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="25" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="25" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="B2" s="2">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2">
-        <v>100</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.95465</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.94569999999999999</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.95016</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.80240999999999996</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.31503999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A3" s="2">
         <v>0.7</v>
       </c>
       <c r="B3" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>30</v>
@@ -537,27 +524,27 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>0.90400999999999998</v>
+        <v>0.95465</v>
       </c>
       <c r="G3" s="2">
-        <v>0.83496000000000004</v>
+        <v>0.94569999999999999</v>
       </c>
       <c r="H3" s="2">
-        <v>0.86811000000000005</v>
+        <v>0.95016</v>
       </c>
       <c r="I3" s="2">
-        <v>0.69425999999999999</v>
+        <v>0.80240999999999996</v>
       </c>
       <c r="J3" s="2">
-        <v>0.21718999999999999</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="K3" s="2">
-        <v>0.33087</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.31503999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A4" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="B4" s="2">
         <v>6</v>
@@ -572,30 +559,30 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>0.81428999999999996</v>
+        <v>0.90400999999999998</v>
       </c>
       <c r="G4" s="2">
-        <v>0.91119000000000006</v>
+        <v>0.83496000000000004</v>
       </c>
       <c r="H4" s="2">
-        <v>0.86002000000000001</v>
+        <v>0.86811000000000005</v>
       </c>
       <c r="I4" s="2">
-        <v>0.50700000000000001</v>
+        <v>0.69425999999999999</v>
       </c>
       <c r="J4" s="2">
-        <v>0.22395999999999999</v>
+        <v>0.21718999999999999</v>
       </c>
       <c r="K4" s="2">
-        <v>0.31068000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.33087</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A5" s="2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="B5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>30</v>
@@ -607,33 +594,33 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>0.77986999999999995</v>
+        <v>0.81428999999999996</v>
       </c>
       <c r="G5" s="2">
-        <v>0.79969999999999997</v>
+        <v>0.91119000000000006</v>
       </c>
       <c r="H5" s="2">
-        <v>0.78966000000000003</v>
+        <v>0.86002000000000001</v>
       </c>
       <c r="I5" s="2">
-        <v>0.49659999999999999</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="J5" s="2">
-        <v>0.23660999999999999</v>
+        <v>0.22395999999999999</v>
       </c>
       <c r="K5" s="2">
-        <v>0.32051000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.31068000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A6" s="2">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="B6" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>100</v>
@@ -642,33 +629,33 @@
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>0.91393999999999997</v>
+        <v>0.77986999999999995</v>
       </c>
       <c r="G6" s="2">
-        <v>0.82223999999999997</v>
+        <v>0.79969999999999997</v>
       </c>
       <c r="H6" s="2">
-        <v>0.86567000000000005</v>
+        <v>0.78966000000000003</v>
       </c>
       <c r="I6" s="2">
-        <v>0.71828000000000003</v>
+        <v>0.49659999999999999</v>
       </c>
       <c r="J6" s="2">
-        <v>0.21160000000000001</v>
+        <v>0.23660999999999999</v>
       </c>
       <c r="K6" s="2">
-        <v>0.32689000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.32051000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A7" s="2">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>100</v>
@@ -677,33 +664,33 @@
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>0.89285999999999999</v>
+        <v>0.91393999999999997</v>
       </c>
       <c r="G7" s="2">
-        <v>0.83860000000000001</v>
+        <v>0.82223999999999997</v>
       </c>
       <c r="H7" s="2">
-        <v>0.86487999999999998</v>
+        <v>0.86567000000000005</v>
       </c>
       <c r="I7" s="2">
-        <v>0.66727999999999998</v>
+        <v>0.71828000000000003</v>
       </c>
       <c r="J7" s="2">
-        <v>0.21482999999999999</v>
+        <v>0.21160000000000001</v>
       </c>
       <c r="K7" s="2">
-        <v>0.32501999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.32689000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="26" customHeight="1">
       <c r="A8" s="2">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>100</v>
@@ -712,33 +699,33 @@
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>0.87488999999999995</v>
+        <v>0.89285999999999999</v>
       </c>
       <c r="G8" s="2">
-        <v>0.85660000000000003</v>
+        <v>0.83860000000000001</v>
       </c>
       <c r="H8" s="2">
-        <v>0.86565000000000003</v>
+        <v>0.86487999999999998</v>
       </c>
       <c r="I8" s="2">
-        <v>0.62609000000000004</v>
+        <v>0.66727999999999998</v>
       </c>
       <c r="J8" s="2">
-        <v>0.21189</v>
+        <v>0.21482999999999999</v>
       </c>
       <c r="K8" s="2">
-        <v>0.31662000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.32501999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A9" s="2">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
         <v>100</v>
@@ -747,33 +734,33 @@
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>0.83550000000000002</v>
+        <v>0.87488999999999995</v>
       </c>
       <c r="G9" s="2">
-        <v>0.87183999999999995</v>
+        <v>0.85660000000000003</v>
       </c>
       <c r="H9" s="2">
-        <v>0.85328000000000004</v>
+        <v>0.86565000000000003</v>
       </c>
       <c r="I9" s="2">
-        <v>0.54857999999999996</v>
+        <v>0.62609000000000004</v>
       </c>
       <c r="J9" s="2">
-        <v>0.21601000000000001</v>
+        <v>0.21189</v>
       </c>
       <c r="K9" s="2">
-        <v>0.30997000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.31662000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A10" s="2">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="B10" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>100</v>
@@ -782,25 +769,25 @@
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>0.78293999999999997</v>
+        <v>0.83550000000000002</v>
       </c>
       <c r="G10" s="2">
-        <v>0.78713</v>
+        <v>0.87183999999999995</v>
       </c>
       <c r="H10" s="2">
-        <v>0.78503000000000001</v>
+        <v>0.85328000000000004</v>
       </c>
       <c r="I10" s="2">
-        <v>0.50671999999999995</v>
+        <v>0.54857999999999996</v>
       </c>
       <c r="J10" s="2">
-        <v>0.23308000000000001</v>
+        <v>0.21601000000000001</v>
       </c>
       <c r="K10" s="2">
-        <v>0.31929000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.30997000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A11" s="2">
         <v>0.76</v>
       </c>
@@ -811,31 +798,31 @@
         <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>0.80715999999999999</v>
+        <v>0.78293999999999997</v>
       </c>
       <c r="G11" s="2">
-        <v>0.79166999999999998</v>
+        <v>0.78713</v>
       </c>
       <c r="H11" s="2">
-        <v>0.79934000000000005</v>
+        <v>0.78503000000000001</v>
       </c>
       <c r="I11" s="2">
-        <v>0.54198000000000002</v>
+        <v>0.50671999999999995</v>
       </c>
       <c r="J11" s="2">
-        <v>0.22983999999999999</v>
+        <v>0.23308000000000001</v>
       </c>
       <c r="K11" s="2">
-        <v>0.32279000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.31929000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A12" s="2">
         <v>0.76</v>
       </c>
@@ -846,31 +833,31 @@
         <v>20</v>
       </c>
       <c r="D12" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>0.81913999999999998</v>
+        <v>0.80715999999999999</v>
       </c>
       <c r="G12" s="2">
-        <v>0.79769000000000001</v>
+        <v>0.79166999999999998</v>
       </c>
       <c r="H12" s="2">
-        <v>0.80827000000000004</v>
+        <v>0.79934000000000005</v>
       </c>
       <c r="I12" s="2">
-        <v>0.55652000000000001</v>
+        <v>0.54198000000000002</v>
       </c>
       <c r="J12" s="2">
-        <v>0.22749</v>
+        <v>0.22983999999999999</v>
       </c>
       <c r="K12" s="2">
-        <v>0.32296000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.32279000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A13" s="2">
         <v>0.76</v>
       </c>
@@ -881,71 +868,71 @@
         <v>20</v>
       </c>
       <c r="D13" s="2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E13" s="2">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.80071000000000003</v>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.81913999999999998</v>
       </c>
       <c r="G13" s="2">
-        <v>0.79159999999999997</v>
+        <v>0.79769000000000001</v>
       </c>
       <c r="H13" s="2">
-        <v>0.79612000000000005</v>
+        <v>0.80827000000000004</v>
       </c>
       <c r="I13" s="2">
-        <v>0.53915000000000002</v>
+        <v>0.55652000000000001</v>
       </c>
       <c r="J13" s="2">
-        <v>0.23102</v>
+        <v>0.22749</v>
       </c>
       <c r="K13" s="2">
-        <v>0.32344000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.32296000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A14" s="2">
         <v>0.76</v>
       </c>
       <c r="B14" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
         <v>20</v>
       </c>
       <c r="D14" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E14" s="2">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.91527999999999998</v>
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.80071000000000003</v>
       </c>
       <c r="G14" s="2">
-        <v>0.91847999999999996</v>
+        <v>0.79159999999999997</v>
       </c>
       <c r="H14" s="2">
-        <v>0.91688000000000003</v>
+        <v>0.79612000000000005</v>
       </c>
       <c r="I14" s="2">
-        <v>0.70030000000000003</v>
+        <v>0.53915000000000002</v>
       </c>
       <c r="J14" s="2">
-        <v>0.20630000000000001</v>
+        <v>0.23102</v>
       </c>
       <c r="K14" s="2">
-        <v>0.31870999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.32344000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A15" s="2">
         <v>0.76</v>
       </c>
       <c r="B15" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2">
         <v>20</v>
@@ -957,60 +944,60 @@
         <v>10</v>
       </c>
       <c r="F15" s="2">
-        <v>0.79745999999999995</v>
+        <v>0.91527999999999998</v>
       </c>
       <c r="G15" s="2">
-        <v>0.78422999999999998</v>
+        <v>0.91847999999999996</v>
       </c>
       <c r="H15" s="2">
-        <v>0.79078999999999999</v>
+        <v>0.91688000000000003</v>
       </c>
       <c r="I15" s="2">
-        <v>0.51204000000000005</v>
+        <v>0.70030000000000003</v>
       </c>
       <c r="J15" s="2">
-        <v>0.23161000000000001</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="K15" s="2">
-        <v>0.31894</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.31870999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A16" s="2">
         <v>0.76</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2">
         <v>120</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2">
-        <v>0.65758000000000005</v>
+        <v>0.79745999999999995</v>
       </c>
       <c r="G16" s="2">
-        <v>0.71774000000000004</v>
+        <v>0.78422999999999998</v>
       </c>
       <c r="H16" s="2">
-        <v>0.68633999999999995</v>
+        <v>0.79078999999999999</v>
       </c>
       <c r="I16" s="2">
-        <v>0.40345999999999999</v>
+        <v>0.51204000000000005</v>
       </c>
       <c r="J16" s="2">
-        <v>0.25396999999999997</v>
+        <v>0.23161000000000001</v>
       </c>
       <c r="K16" s="2">
-        <v>0.31172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.31894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A17" s="2">
         <v>0.76</v>
       </c>
@@ -1018,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>120</v>
@@ -1027,30 +1014,30 @@
         <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>0.68308999999999997</v>
+        <v>0.65758000000000005</v>
       </c>
       <c r="G17" s="2">
-        <v>0.68664999999999998</v>
+        <v>0.71774000000000004</v>
       </c>
       <c r="H17" s="2">
-        <v>0.68486999999999998</v>
+        <v>0.68633999999999995</v>
       </c>
       <c r="I17" s="2">
-        <v>0.42702000000000001</v>
+        <v>0.40345999999999999</v>
       </c>
       <c r="J17" s="2">
-        <v>0.24278</v>
+        <v>0.25396999999999997</v>
       </c>
       <c r="K17" s="2">
-        <v>0.30957000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.31172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A18" s="2">
         <v>0.76</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
         <v>20</v>
@@ -1062,28 +1049,68 @@
         <v>1</v>
       </c>
       <c r="F18" s="2">
+        <v>0.68308999999999997</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.68664999999999998</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.68486999999999998</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.42702000000000001</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.24278</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.30957000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A19" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>120</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
         <v>0.53952999999999995</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G19" s="2">
         <v>0.55530000000000002</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H19" s="2">
         <v>0.54730000000000001</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I19" s="2">
         <v>0.33944999999999997</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J19" s="2">
         <v>0.25602999999999998</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K19" s="2">
         <v>0.29189999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="21" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="22" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="23" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="25" spans="1:11" ht="25" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HyperParameterTuning.xlsx
+++ b/HyperParameterTuning.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wumeiqi/Desktop/Projects/charmion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD582308-7160-EB47-B4CC-800E219382E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF867E4-12B0-1949-878F-7B7A50D15BCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46280" yWindow="-4920" windowWidth="30080" windowHeight="14860" xr2:uid="{33FA2F1C-F58F-5C4A-AEF1-FC412495B342}"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="14560" activeTab="1" xr2:uid="{33FA2F1C-F58F-5C4A-AEF1-FC412495B342}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>weight_ratio</t>
   </si>
@@ -69,6 +71,15 @@
   </si>
   <si>
     <t>Classifier Chain (Random Forest)</t>
+  </si>
+  <si>
+    <t>Binary Relevance (Gradient Boost)</t>
+  </si>
+  <si>
+    <t>Early_stopping_rounds</t>
+  </si>
+  <si>
+    <t>Binary Relevance (Random Forest)</t>
   </si>
 </sst>
 </file>
@@ -459,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B620D9-3802-1E40-A647-DF5E8574A81E}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="25" customHeight="1"/>
@@ -1107,10 +1118,554 @@
     <row r="22" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
     <row r="23" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
     <row r="25" spans="1:11" ht="25" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" ht="25" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BE575D-28DF-D142-AB77-0159C86F39E2}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="25" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="25" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A3" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="B3" s="2">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.99653999999999998</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.99826999999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.76902000000000004</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.25272</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.38042999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A4" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="B4" s="2">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.99551000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.99775000000000003</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.76161000000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.25566</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.38281999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A5" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B5" s="2">
+        <v>100</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.99073</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.99534</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.73411000000000004</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.25830999999999998</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.38214999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A6" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.96172999999999997</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.98048999999999997</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.63466999999999996</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.27037</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.37919999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A7" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="B7" s="2">
+        <v>75</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.99231999999999998</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.99614999999999998</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.74356999999999995</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.26361000000000001</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.38923000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A8" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="B8" s="2">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.96553999999999995</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.98245000000000005</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.64119000000000004</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.26655000000000001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.37656000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A9" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.75639999999999996</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.86131000000000002</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.37108999999999998</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.28244000000000002</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.32074999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="16" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="17" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="18" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="19" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="20" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="21" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="22" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="23" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="24" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="25" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="26" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="27" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="28" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="29" s="2" customFormat="1" ht="25" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF978B6-ADC7-9A47-A7A0-54991F580859}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="25" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="25" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.90883999999999998</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.83792999999999995</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.87195</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.71206000000000003</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.21542</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.33077000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2">
+        <v>120</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.85841999999999996</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.74994000000000005</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.80052000000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.64383999999999997</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.23507</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.34439999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A5" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2">
+        <v>120</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.47738000000000003</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.77924000000000004</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.59204999999999997</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.23455999999999999</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.25968000000000002</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.24648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A6" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>120</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.64356000000000002</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.70511000000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.67293000000000003</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.37652000000000002</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.24465999999999999</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.29659999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A7" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>120</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.70052000000000003</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.67325999999999997</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.68662000000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.44266</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.23963000000000001</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.31085000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="17" s="2" customFormat="1" ht="25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HyperParameterTuning.xlsx
+++ b/HyperParameterTuning.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wumeiqi/Desktop/Projects/charmion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF867E4-12B0-1949-878F-7B7A50D15BCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF6ECCA-D9BF-2A49-98D0-63D1C088AE1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="14560" activeTab="1" xr2:uid="{33FA2F1C-F58F-5C4A-AEF1-FC412495B342}"/>
+    <workbookView xWindow="47940" yWindow="-4440" windowWidth="27560" windowHeight="19480" xr2:uid="{33FA2F1C-F58F-5C4A-AEF1-FC412495B342}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="NN_preprocess" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>weight_ratio</t>
   </si>
@@ -80,13 +81,64 @@
   </si>
   <si>
     <t>Binary Relevance (Random Forest)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NN+Preprocessing </t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>dropout</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>pos_weight</t>
+  </si>
+  <si>
+    <t>patience</t>
+  </si>
+  <si>
+    <t>train_loss</t>
+  </si>
+  <si>
+    <t>val_loss</t>
+  </si>
+  <si>
+    <t>2048, 2048</t>
+  </si>
+  <si>
+    <t>0, 0.3, 0.2</t>
+  </si>
+  <si>
+    <t>0, 0.4,  0.3</t>
+  </si>
+  <si>
+    <t>2048, 1024</t>
+  </si>
+  <si>
+    <t>0, 0.4,  0.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -128,6 +180,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Roboto Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,13 +214,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,6 +538,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568173FD-8158-4E4F-9821-5948AE2F448D}">
+  <dimension ref="A1:K52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="25" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="25" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="25" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>64</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.41541422098344E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.8286698761866501E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>64</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1.4205575086097299E-2</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1.81742115590478E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2">
+        <v>100</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>64</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="17" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="18" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="19" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="20" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="21" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="22" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="23" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="24" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="25" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="26" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="27" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="28" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="29" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="30" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="31" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="32" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="33" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="34" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="35" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="36" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="37" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="38" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="39" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="40" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="41" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="42" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="43" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="44" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="45" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="46" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="47" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="48" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="49" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="50" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="51" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="52" s="2" customFormat="1" ht="25" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF978B6-ADC7-9A47-A7A0-54991F580859}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="25" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="25" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.90883999999999998</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.83792999999999995</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.87195</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.71206000000000003</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.21542</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.33077000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2">
+        <v>120</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.85841999999999996</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.74994000000000005</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.80052000000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.64383999999999997</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.23507</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.34439999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A5" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2">
+        <v>120</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.47738000000000003</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.77924000000000004</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.59204999999999997</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.23455999999999999</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.25968000000000002</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.24648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A6" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>120</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.64356000000000002</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.70511000000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.67293000000000003</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.37652000000000002</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.24465999999999999</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.29659999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A7" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>120</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.70052000000000003</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.67325999999999997</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.68662000000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.44266</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.23963000000000001</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.31085000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+    <row r="17" s="2" customFormat="1" ht="25" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B620D9-3802-1E40-A647-DF5E8574A81E}">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -1135,11 +1647,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BE575D-28DF-D142-AB77-0159C86F39E2}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1429,244 +1941,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF978B6-ADC7-9A47-A7A0-54991F580859}">
-  <dimension ref="A1:K17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="25" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="25" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2">
-        <v>100</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.90883999999999998</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.83792999999999995</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.87195</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.71206000000000003</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.21542</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.33077000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A4" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2">
-        <v>120</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.85841999999999996</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.74994000000000005</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.80052000000000001</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.64383999999999997</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.23507</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.34439999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A5" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2">
-        <v>120</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.47738000000000003</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.77924000000000004</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.59204999999999997</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.23455999999999999</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.25968000000000002</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.24648</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A6" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>120</v>
-      </c>
-      <c r="D6" s="2">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.64356000000000002</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.70511000000000001</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.67293000000000003</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.37652000000000002</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.24465999999999999</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.29659999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A7" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>120</v>
-      </c>
-      <c r="D7" s="2">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.70052000000000003</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.67325999999999997</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.68662000000000001</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.44266</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.23963000000000001</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.31085000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
-    <row r="13" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
-    <row r="14" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
-    <row r="15" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
-    <row r="16" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
-    <row r="17" s="2" customFormat="1" ht="25" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/HyperParameterTuning.xlsx
+++ b/HyperParameterTuning.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wumeiqi/Desktop/Projects/charmion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF6ECCA-D9BF-2A49-98D0-63D1C088AE1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA0A271-841A-5344-AA89-622C2394DCEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47940" yWindow="-4440" windowWidth="27560" windowHeight="19480" xr2:uid="{33FA2F1C-F58F-5C4A-AEF1-FC412495B342}"/>
+    <workbookView xWindow="49020" yWindow="-5140" windowWidth="26700" windowHeight="19480" xr2:uid="{33FA2F1C-F58F-5C4A-AEF1-FC412495B342}"/>
   </bookViews>
   <sheets>
-    <sheet name="NN_preprocess" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="NN_preprocessing_v2" sheetId="5" r:id="rId1"/>
+    <sheet name="NN_preprocess" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t>weight_ratio</t>
   </si>
@@ -83,9 +84,6 @@
     <t>Binary Relevance (Random Forest)</t>
   </si>
   <si>
-    <t xml:space="preserve">NN+Preprocessing </t>
-  </si>
-  <si>
     <t>structure</t>
   </si>
   <si>
@@ -132,6 +130,15 @@
   </si>
   <si>
     <t>0, 0.4,  0.1</t>
+  </si>
+  <si>
+    <t>0, 0.4,  0.2</t>
+  </si>
+  <si>
+    <t>NN+Preprocessing (only pca features)</t>
+  </si>
+  <si>
+    <t>0, 0.4, 0.2</t>
   </si>
 </sst>
 </file>
@@ -538,61 +545,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742B345E-F197-5342-8978-E22673408611}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="25" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="25" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>64</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1.5828026681102898E-2</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1.74372965184014E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568173FD-8158-4E4F-9821-5948AE2F448D}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="25" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:11" ht="25" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="25" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C3" s="2">
         <v>100</v>
@@ -624,10 +721,10 @@
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <v>100</v>
@@ -659,10 +756,10 @@
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C5" s="2">
         <v>100</v>
@@ -685,13 +782,153 @@
       <c r="I5" s="2">
         <v>5</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
-    <row r="7" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
+      <c r="J5" s="9">
+        <v>1.4069391957168E-2</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1.8052260538972398E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>64</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1.4734094953700601E-2</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1.8000160131463199E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2">
+        <v>100</v>
+      </c>
+      <c r="D7" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>64</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1.4621366174352101E-2</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1.7960698528235199E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2">
+        <v>100</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>64</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1.9651186266700899E-2</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1.9911187111995701E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2">
+        <v>100</v>
+      </c>
+      <c r="D9" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>64</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1.45350891296367E-2</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1.80336946060859E-2</v>
+      </c>
+    </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
     <row r="11" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
     <row r="12" spans="1:11" s="2" customFormat="1" ht="25" customHeight="1"/>
@@ -740,7 +977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF978B6-ADC7-9A47-A7A0-54991F580859}">
   <dimension ref="A1:K17"/>
   <sheetViews>
@@ -980,7 +1217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B620D9-3802-1E40-A647-DF5E8574A81E}">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -1647,7 +1884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BE575D-28DF-D142-AB77-0159C86F39E2}">
   <dimension ref="A1:J29"/>
   <sheetViews>

--- a/HyperParameterTuning.xlsx
+++ b/HyperParameterTuning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wumeiqi/Desktop/Projects/charmion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA0A271-841A-5344-AA89-622C2394DCEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78F2748-0396-AC4D-BAC8-C2D6D110274E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49020" yWindow="-5140" windowWidth="26700" windowHeight="19480" xr2:uid="{33FA2F1C-F58F-5C4A-AEF1-FC412495B342}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{33FA2F1C-F58F-5C4A-AEF1-FC412495B342}"/>
   </bookViews>
   <sheets>
     <sheet name="NN_preprocessing_v2" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
   <si>
     <t>weight_ratio</t>
   </si>
@@ -139,6 +139,21 @@
   </si>
   <si>
     <t>0, 0.4, 0.2</t>
+  </si>
+  <si>
+    <t>NN+Preprocessing (including pca features)</t>
+  </si>
+  <si>
+    <t>2048, 1024, 1024</t>
+  </si>
+  <si>
+    <t>0, 0.4, 0.1, 0.1</t>
+  </si>
+  <si>
+    <t>0, 0.3, 0.1, 0.1</t>
+  </si>
+  <si>
+    <t>0, 0.35, 0.2</t>
   </si>
 </sst>
 </file>
@@ -546,17 +561,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742B345E-F197-5342-8978-E22673408611}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="25" customHeight="1">
@@ -629,6 +647,261 @@
         <v>1.74372965184014E-2</v>
       </c>
     </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>64</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.53971245437625E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.7477524163812399E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="17" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2">
+        <v>100</v>
+      </c>
+      <c r="D17" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>64</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
+      <c r="J17" s="9">
+        <v>1.6126633228122401E-2</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1.7507555525624299E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2">
+        <v>100</v>
+      </c>
+      <c r="D18" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>64</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>5</v>
+      </c>
+      <c r="J18" s="9">
+        <v>1.59470900390845E-2</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1.7558497225747E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2">
+        <v>125</v>
+      </c>
+      <c r="D19" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>64</v>
+      </c>
+      <c r="F19" s="8">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G19" s="8">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>5</v>
+      </c>
+      <c r="J19" s="9">
+        <v>1.4289849943870199E-2</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1.7980587276906899E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2">
+        <v>100</v>
+      </c>
+      <c r="D20" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>64</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1.5E-5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5</v>
+      </c>
+      <c r="J20" s="9">
+        <v>1.59930413770807E-2</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1.75625896437317E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="22" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="23" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="24" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="25" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="26" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="27" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="28" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="2">
+        <v>125</v>
+      </c>
+      <c r="D28" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E28" s="2">
+        <v>128</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1.5E-5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>5</v>
+      </c>
+      <c r="J28" s="9">
+        <v>1.5883174757118299E-2</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1.7635809412062799E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="30" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="31" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="32" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="33" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="34" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="35" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="36" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="37" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="38" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="39" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="40" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="41" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="42" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="43" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="44" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="45" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="46" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="47" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="48" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="49" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="50" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="51" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="52" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="53" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="54" s="2" customFormat="1" ht="20" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -639,7 +912,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="25" customHeight="1"/>
